--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ENEM-Score-Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mestrado\Aprendizado de Máquina\ENEM-Test-Performance-Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2EE4BF-7C57-4597-B393-9CC7B1DC510C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-28320" yWindow="-1755" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Tópicos</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Inclusão de municípios</t>
   </si>
   <si>
-    <t>Renomear variáveis</t>
-  </si>
-  <si>
     <t>Usar todas as notas</t>
   </si>
   <si>
@@ -72,12 +70,24 @@
   </si>
   <si>
     <t>Responsável</t>
+  </si>
+  <si>
+    <t>Renomear variáveis/Binarização</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,45 +430,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="7">
         <v>44094</v>
       </c>
@@ -467,14 +479,16 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="7">
         <v>44094</v>
       </c>
@@ -483,14 +497,16 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="7">
         <v>44094</v>
       </c>
@@ -499,14 +515,16 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="7">
         <v>44094</v>
       </c>
@@ -515,44 +533,44 @@
         <v>44108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7">
         <v>44108</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E15" si="0">D9+14</f>
+        <f>D9+14</f>
         <v>44122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="7">
         <v>44108</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E9:E15" si="0">D10+14</f>
         <v>44122</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7">
@@ -563,12 +581,12 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="7">
@@ -579,12 +597,12 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="7">
@@ -595,12 +613,12 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7">
@@ -611,12 +629,12 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7">
@@ -627,12 +645,12 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7">
@@ -644,5 +662,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>